--- a/data/men/M_2022_03_Dukla_Olomouc.xlsx
+++ b/data/men/M_2022_03_Dukla_Olomouc.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\data\men\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD80C3B-005E-4815-A8CE-7452BBE89F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396AE014-499B-4576-BAB5-21F55E788CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="21768" windowHeight="12096" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1452" yWindow="-13428" windowWidth="25488" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="initiation" sheetId="3" r:id="rId1"/>
-    <sheet name="first_round" sheetId="2" r:id="rId2"/>
-    <sheet name="total_rank" sheetId="1" r:id="rId3"/>
-    <sheet name="pools" sheetId="4" r:id="rId4"/>
-    <sheet name="eliminations" sheetId="5" r:id="rId5"/>
+    <sheet name="total" sheetId="6" r:id="rId1"/>
+    <sheet name="initiation" sheetId="3" r:id="rId2"/>
+    <sheet name="first_round" sheetId="2" r:id="rId3"/>
+    <sheet name="total_rank" sheetId="1" r:id="rId4"/>
+    <sheet name="pools" sheetId="4" r:id="rId5"/>
+    <sheet name="eliminations" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">eliminations!$C$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">first_round!$A$1:$M$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">initiation!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">pools!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">total_rank!$A$1:$H$1</definedName>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">initiation!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">eliminations!$C$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">first_round!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">initiation!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">pools!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">total!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">total_rank!$A$1:$H$1</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">initiation!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -79,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4903" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5286" uniqueCount="125">
   <si>
     <t>Name</t>
   </si>
@@ -452,6 +454,9 @@
   <si>
     <t>DUDUC Alex Vladimír</t>
   </si>
+  <si>
+    <t>Percentil</t>
+  </si>
 </sst>
 </file>
 
@@ -551,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -641,6 +646,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -920,11 +926,3452 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C3F57B-BAAF-4267-905A-99BDD3FBBDE0}">
+  <dimension ref="A1:Q84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="10.21875" style="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>35796</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>35</v>
+      </c>
+      <c r="L2">
+        <v>9</v>
+      </c>
+      <c r="M2">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="36">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="45">
+        <f>P2/MAX($P$2:$P$62)</f>
+        <v>8.1967213114754092E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>58</v>
+      </c>
+      <c r="H3" s="1">
+        <v>35431</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K3">
+        <v>25</v>
+      </c>
+      <c r="L3">
+        <v>25</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="36">
+        <v>29</v>
+      </c>
+      <c r="P3">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="45">
+        <f t="shared" ref="Q3:Q62" si="0">P3/MAX($P$2:$P$62)</f>
+        <v>0.57377049180327866</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1">
+        <v>30021</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0.33</v>
+      </c>
+      <c r="K4">
+        <v>21</v>
+      </c>
+      <c r="L4">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>-3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="36">
+        <v>40</v>
+      </c>
+      <c r="P4">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="45">
+        <f t="shared" si="0"/>
+        <v>0.52459016393442626</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>999</v>
+      </c>
+      <c r="H5" s="1">
+        <v>38473</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K5">
+        <v>19</v>
+      </c>
+      <c r="L5">
+        <v>28</v>
+      </c>
+      <c r="M5">
+        <v>-9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="36">
+        <v>47</v>
+      </c>
+      <c r="P5">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="45">
+        <f t="shared" si="0"/>
+        <v>0.77049180327868849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>30573</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>35</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="36">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="45">
+        <f t="shared" si="0"/>
+        <v>0.14754098360655737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>33595</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>35</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>30</v>
+      </c>
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="36">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="45">
+        <f t="shared" si="0"/>
+        <v>4.9180327868852458E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1">
+        <v>34315</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>29</v>
+      </c>
+      <c r="L8">
+        <v>14</v>
+      </c>
+      <c r="M8">
+        <v>15</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="36">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="45">
+        <f t="shared" si="0"/>
+        <v>9.8360655737704916E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <v>35582</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>0.67</v>
+      </c>
+      <c r="K9">
+        <v>26</v>
+      </c>
+      <c r="L9">
+        <v>20</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="36">
+        <v>18</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="45">
+        <f t="shared" si="0"/>
+        <v>0.13114754098360656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>70</v>
+      </c>
+      <c r="H10" s="1">
+        <v>38019</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>0.67</v>
+      </c>
+      <c r="K10">
+        <v>23</v>
+      </c>
+      <c r="L10">
+        <v>21</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="36">
+        <v>21</v>
+      </c>
+      <c r="P10">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="45">
+        <f t="shared" si="0"/>
+        <v>0.36065573770491804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>41</v>
+      </c>
+      <c r="H11" s="1">
+        <v>31413</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K11">
+        <v>29</v>
+      </c>
+      <c r="L11">
+        <v>25</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="36">
+        <v>25</v>
+      </c>
+      <c r="P11">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="45">
+        <f t="shared" si="0"/>
+        <v>0.54098360655737709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>64</v>
+      </c>
+      <c r="H12" s="1">
+        <v>37694</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K12">
+        <v>26</v>
+      </c>
+      <c r="L12">
+        <v>24</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="36">
+        <v>28</v>
+      </c>
+      <c r="P12">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="45">
+        <f t="shared" si="0"/>
+        <v>0.42622950819672129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>114</v>
+      </c>
+      <c r="H13" s="1">
+        <v>38471</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>0.43</v>
+      </c>
+      <c r="K13">
+        <v>23</v>
+      </c>
+      <c r="L13">
+        <v>28</v>
+      </c>
+      <c r="M13">
+        <v>-5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="36">
+        <v>39</v>
+      </c>
+      <c r="P13">
+        <v>40</v>
+      </c>
+      <c r="Q13" s="45">
+        <f t="shared" si="0"/>
+        <v>0.65573770491803274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>999</v>
+      </c>
+      <c r="H14" s="1">
+        <v>33791</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.17</v>
+      </c>
+      <c r="K14">
+        <v>16</v>
+      </c>
+      <c r="L14">
+        <v>27</v>
+      </c>
+      <c r="M14">
+        <v>-11</v>
+      </c>
+      <c r="N14" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14" s="36">
+        <v>53</v>
+      </c>
+      <c r="P14">
+        <v>53</v>
+      </c>
+      <c r="Q14" s="45">
+        <f t="shared" si="0"/>
+        <v>0.86885245901639341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>54</v>
+      </c>
+      <c r="H15" s="1">
+        <v>21027</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K15">
+        <v>21</v>
+      </c>
+      <c r="L15">
+        <v>30</v>
+      </c>
+      <c r="M15">
+        <v>-9</v>
+      </c>
+      <c r="N15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" s="36">
+        <v>46</v>
+      </c>
+      <c r="P15">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="45">
+        <f t="shared" si="0"/>
+        <v>0.75409836065573765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>74</v>
+      </c>
+      <c r="H16" s="1">
+        <v>24801</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>0.67</v>
+      </c>
+      <c r="K16">
+        <v>23</v>
+      </c>
+      <c r="L16">
+        <v>21</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" s="36">
+        <v>21</v>
+      </c>
+      <c r="P16">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="45">
+        <f t="shared" si="0"/>
+        <v>0.36065573770491804</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>82</v>
+      </c>
+      <c r="H17" s="1">
+        <v>38600</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>0.71</v>
+      </c>
+      <c r="K17">
+        <v>29</v>
+      </c>
+      <c r="L17">
+        <v>20</v>
+      </c>
+      <c r="M17">
+        <v>9</v>
+      </c>
+      <c r="N17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="36">
+        <v>13</v>
+      </c>
+      <c r="P17">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="45">
+        <f t="shared" si="0"/>
+        <v>0.21311475409836064</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>47</v>
+      </c>
+      <c r="H18" s="1">
+        <v>29600</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.17</v>
+      </c>
+      <c r="K18">
+        <v>18</v>
+      </c>
+      <c r="L18">
+        <v>29</v>
+      </c>
+      <c r="M18">
+        <v>-11</v>
+      </c>
+      <c r="N18" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" s="36">
+        <v>52</v>
+      </c>
+      <c r="P18">
+        <v>52</v>
+      </c>
+      <c r="Q18" s="45">
+        <f t="shared" si="0"/>
+        <v>0.85245901639344257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>84</v>
+      </c>
+      <c r="H19" s="1">
+        <v>30843</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="L19">
+        <v>32</v>
+      </c>
+      <c r="M19">
+        <v>-14</v>
+      </c>
+      <c r="N19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" s="36">
+        <v>55</v>
+      </c>
+      <c r="P19">
+        <v>55</v>
+      </c>
+      <c r="Q19" s="45">
+        <f t="shared" si="0"/>
+        <v>0.90163934426229508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>64</v>
+      </c>
+      <c r="H20" s="1">
+        <v>25022</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K20">
+        <v>17</v>
+      </c>
+      <c r="L20">
+        <v>30</v>
+      </c>
+      <c r="M20">
+        <v>-13</v>
+      </c>
+      <c r="N20" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" s="36">
+        <v>49</v>
+      </c>
+      <c r="P20">
+        <v>49</v>
+      </c>
+      <c r="Q20" s="45">
+        <f t="shared" si="0"/>
+        <v>0.80327868852459017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>29</v>
+      </c>
+      <c r="H21" s="1">
+        <v>37523</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>0.43</v>
+      </c>
+      <c r="K21">
+        <v>26</v>
+      </c>
+      <c r="L21">
+        <v>29</v>
+      </c>
+      <c r="M21">
+        <v>-3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" s="36">
+        <v>36</v>
+      </c>
+      <c r="P21">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="45">
+        <f t="shared" si="0"/>
+        <v>0.49180327868852458</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>36</v>
+      </c>
+      <c r="H22" s="1">
+        <v>35431</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>0.43</v>
+      </c>
+      <c r="K22">
+        <v>23</v>
+      </c>
+      <c r="L22">
+        <v>22</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>37</v>
+      </c>
+      <c r="O22" s="36">
+        <v>34</v>
+      </c>
+      <c r="P22">
+        <v>38</v>
+      </c>
+      <c r="Q22" s="45">
+        <f t="shared" si="0"/>
+        <v>0.62295081967213117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>84</v>
+      </c>
+      <c r="H23" s="1">
+        <v>30784</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>0.5</v>
+      </c>
+      <c r="K23">
+        <v>25</v>
+      </c>
+      <c r="L23">
+        <v>25</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" s="36">
+        <v>32</v>
+      </c>
+      <c r="P23">
+        <v>37</v>
+      </c>
+      <c r="Q23" s="45">
+        <f t="shared" si="0"/>
+        <v>0.60655737704918034</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>22</v>
+      </c>
+      <c r="H24" s="1">
+        <v>37683</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24">
+        <v>0.86</v>
+      </c>
+      <c r="K24">
+        <v>30</v>
+      </c>
+      <c r="L24">
+        <v>19</v>
+      </c>
+      <c r="M24">
+        <v>11</v>
+      </c>
+      <c r="N24" t="s">
+        <v>37</v>
+      </c>
+      <c r="O24" s="36">
+        <v>6</v>
+      </c>
+      <c r="P24">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="45">
+        <f t="shared" si="0"/>
+        <v>0.16393442622950818</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>51</v>
+      </c>
+      <c r="H25" s="1">
+        <v>38299</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0.17</v>
+      </c>
+      <c r="K25">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <v>25</v>
+      </c>
+      <c r="M25">
+        <v>-5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>38</v>
+      </c>
+      <c r="O25" s="36">
+        <v>50</v>
+      </c>
+      <c r="P25">
+        <v>50</v>
+      </c>
+      <c r="Q25" s="45">
+        <f t="shared" si="0"/>
+        <v>0.81967213114754101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>999</v>
+      </c>
+      <c r="H26" s="1">
+        <v>32227</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K26">
+        <v>25</v>
+      </c>
+      <c r="L26">
+        <v>27</v>
+      </c>
+      <c r="M26">
+        <v>-2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>37</v>
+      </c>
+      <c r="O26" s="36">
+        <v>30</v>
+      </c>
+      <c r="P26">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="45">
+        <f t="shared" si="0"/>
+        <v>0.44262295081967212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>51</v>
+      </c>
+      <c r="H27" s="1">
+        <v>30053</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>0.67</v>
+      </c>
+      <c r="K27">
+        <v>25</v>
+      </c>
+      <c r="L27">
+        <v>21</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>37</v>
+      </c>
+      <c r="O27" s="36">
+        <v>20</v>
+      </c>
+      <c r="P27">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="45">
+        <f t="shared" si="0"/>
+        <v>0.34426229508196721</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>58</v>
+      </c>
+      <c r="H28" s="1">
+        <v>38168</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>19</v>
+      </c>
+      <c r="L28">
+        <v>35</v>
+      </c>
+      <c r="M28">
+        <v>-16</v>
+      </c>
+      <c r="N28" t="s">
+        <v>38</v>
+      </c>
+      <c r="O28" s="36">
+        <v>58</v>
+      </c>
+      <c r="P28">
+        <v>58</v>
+      </c>
+      <c r="Q28" s="45">
+        <f t="shared" si="0"/>
+        <v>0.95081967213114749</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>93</v>
+      </c>
+      <c r="H29" s="1">
+        <v>32982</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K29">
+        <v>28</v>
+      </c>
+      <c r="L29">
+        <v>24</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>37</v>
+      </c>
+      <c r="O29" s="36">
+        <v>27</v>
+      </c>
+      <c r="P29">
+        <v>34</v>
+      </c>
+      <c r="Q29" s="45">
+        <f t="shared" si="0"/>
+        <v>0.55737704918032782</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>51</v>
+      </c>
+      <c r="H30" s="1">
+        <v>34789</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K30">
+        <v>29</v>
+      </c>
+      <c r="L30">
+        <v>21</v>
+      </c>
+      <c r="M30">
+        <v>8</v>
+      </c>
+      <c r="N30" t="s">
+        <v>37</v>
+      </c>
+      <c r="O30" s="36">
+        <v>24</v>
+      </c>
+      <c r="P30">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="45">
+        <f t="shared" si="0"/>
+        <v>0.4098360655737705</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>999</v>
+      </c>
+      <c r="H31" s="1">
+        <v>38587</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>0.33</v>
+      </c>
+      <c r="K31">
+        <v>19</v>
+      </c>
+      <c r="L31">
+        <v>24</v>
+      </c>
+      <c r="M31">
+        <v>-5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>37</v>
+      </c>
+      <c r="O31" s="36">
+        <v>41</v>
+      </c>
+      <c r="P31">
+        <v>41</v>
+      </c>
+      <c r="Q31" s="45">
+        <f t="shared" si="0"/>
+        <v>0.67213114754098358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>108</v>
+      </c>
+      <c r="H32" s="1">
+        <v>38308</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>15</v>
+      </c>
+      <c r="L32">
+        <v>35</v>
+      </c>
+      <c r="M32">
+        <v>-20</v>
+      </c>
+      <c r="N32" t="s">
+        <v>38</v>
+      </c>
+      <c r="O32" s="36">
+        <v>59</v>
+      </c>
+      <c r="P32">
+        <v>59</v>
+      </c>
+      <c r="Q32" s="45">
+        <f t="shared" si="0"/>
+        <v>0.96721311475409832</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>64</v>
+      </c>
+      <c r="H33" s="1">
+        <v>38231</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>0.83</v>
+      </c>
+      <c r="K33">
+        <v>28</v>
+      </c>
+      <c r="L33">
+        <v>13</v>
+      </c>
+      <c r="M33">
+        <v>15</v>
+      </c>
+      <c r="N33" t="s">
+        <v>37</v>
+      </c>
+      <c r="O33" s="36">
+        <v>7</v>
+      </c>
+      <c r="P33">
+        <v>11</v>
+      </c>
+      <c r="Q33" s="45">
+        <f t="shared" si="0"/>
+        <v>0.18032786885245902</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>50</v>
+      </c>
+      <c r="H34" s="1">
+        <v>33239</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>0.33</v>
+      </c>
+      <c r="K34">
+        <v>15</v>
+      </c>
+      <c r="L34">
+        <v>26</v>
+      </c>
+      <c r="M34">
+        <v>-11</v>
+      </c>
+      <c r="N34" t="s">
+        <v>37</v>
+      </c>
+      <c r="O34" s="36">
+        <v>42</v>
+      </c>
+      <c r="P34">
+        <v>42</v>
+      </c>
+      <c r="Q34" s="45">
+        <f t="shared" si="0"/>
+        <v>0.68852459016393441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>94</v>
+      </c>
+      <c r="H35" s="1">
+        <v>38111</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>0.71</v>
+      </c>
+      <c r="K35">
+        <v>29</v>
+      </c>
+      <c r="L35">
+        <v>24</v>
+      </c>
+      <c r="M35">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>37</v>
+      </c>
+      <c r="O35" s="36">
+        <v>15</v>
+      </c>
+      <c r="P35">
+        <v>18</v>
+      </c>
+      <c r="Q35" s="45">
+        <f t="shared" si="0"/>
+        <v>0.29508196721311475</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>8</v>
+      </c>
+      <c r="H36" s="1">
+        <v>36782</v>
+      </c>
+      <c r="I36">
+        <v>7</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>35</v>
+      </c>
+      <c r="L36">
+        <v>15</v>
+      </c>
+      <c r="M36">
+        <v>20</v>
+      </c>
+      <c r="N36" t="s">
+        <v>37</v>
+      </c>
+      <c r="O36" s="36">
+        <v>4</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="45">
+        <f t="shared" si="0"/>
+        <v>1.6393442622950821E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37" s="1">
+        <v>32319</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <v>0.83</v>
+      </c>
+      <c r="K37">
+        <v>28</v>
+      </c>
+      <c r="L37">
+        <v>15</v>
+      </c>
+      <c r="M37">
+        <v>13</v>
+      </c>
+      <c r="N37" t="s">
+        <v>37</v>
+      </c>
+      <c r="O37" s="36">
+        <v>10</v>
+      </c>
+      <c r="P37">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="45">
+        <f t="shared" si="0"/>
+        <v>3.2786885245901641E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>22</v>
+      </c>
+      <c r="H38" s="1">
+        <v>38054</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>0.71</v>
+      </c>
+      <c r="K38">
+        <v>29</v>
+      </c>
+      <c r="L38">
+        <v>19</v>
+      </c>
+      <c r="M38">
+        <v>10</v>
+      </c>
+      <c r="N38" t="s">
+        <v>37</v>
+      </c>
+      <c r="O38" s="36">
+        <v>12</v>
+      </c>
+      <c r="P38">
+        <v>12</v>
+      </c>
+      <c r="Q38" s="45">
+        <f t="shared" si="0"/>
+        <v>0.19672131147540983</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>58</v>
+      </c>
+      <c r="H39" s="1">
+        <v>38452</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K39">
+        <v>29</v>
+      </c>
+      <c r="L39">
+        <v>25</v>
+      </c>
+      <c r="M39">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>37</v>
+      </c>
+      <c r="O39" s="36">
+        <v>25</v>
+      </c>
+      <c r="P39">
+        <v>16</v>
+      </c>
+      <c r="Q39" s="45">
+        <f t="shared" si="0"/>
+        <v>0.26229508196721313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>70</v>
+      </c>
+      <c r="H40" s="1">
+        <v>27520</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>0.5</v>
+      </c>
+      <c r="K40">
+        <v>21</v>
+      </c>
+      <c r="L40">
+        <v>24</v>
+      </c>
+      <c r="M40">
+        <v>-3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>37</v>
+      </c>
+      <c r="O40" s="36">
+        <v>33</v>
+      </c>
+      <c r="P40">
+        <v>28</v>
+      </c>
+      <c r="Q40" s="45">
+        <f t="shared" si="0"/>
+        <v>0.45901639344262296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>34</v>
+      </c>
+      <c r="H41" s="1">
+        <v>37969</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <v>0.43</v>
+      </c>
+      <c r="K41">
+        <v>22</v>
+      </c>
+      <c r="L41">
+        <v>25</v>
+      </c>
+      <c r="M41">
+        <v>-3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>37</v>
+      </c>
+      <c r="O41" s="36">
+        <v>37</v>
+      </c>
+      <c r="P41">
+        <v>39</v>
+      </c>
+      <c r="Q41" s="45">
+        <f t="shared" si="0"/>
+        <v>0.63934426229508201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="H42" s="1">
+        <v>35324</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>0.71</v>
+      </c>
+      <c r="K42">
+        <v>30</v>
+      </c>
+      <c r="L42">
+        <v>17</v>
+      </c>
+      <c r="M42">
+        <v>13</v>
+      </c>
+      <c r="N42" t="s">
+        <v>37</v>
+      </c>
+      <c r="O42" s="36">
+        <v>11</v>
+      </c>
+      <c r="P42">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="45">
+        <f t="shared" si="0"/>
+        <v>4.9180327868852458E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>999</v>
+      </c>
+      <c r="H43" s="1">
+        <v>30288</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K43">
+        <v>15</v>
+      </c>
+      <c r="L43">
+        <v>34</v>
+      </c>
+      <c r="M43">
+        <v>-19</v>
+      </c>
+      <c r="N43" t="s">
+        <v>38</v>
+      </c>
+      <c r="O43" s="36">
+        <v>57</v>
+      </c>
+      <c r="P43">
+        <v>57</v>
+      </c>
+      <c r="Q43" s="45">
+        <f t="shared" si="0"/>
+        <v>0.93442622950819676</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>11</v>
+      </c>
+      <c r="H44" s="1">
+        <v>37101</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <v>0.83</v>
+      </c>
+      <c r="K44">
+        <v>28</v>
+      </c>
+      <c r="L44">
+        <v>13</v>
+      </c>
+      <c r="M44">
+        <v>15</v>
+      </c>
+      <c r="N44" t="s">
+        <v>37</v>
+      </c>
+      <c r="O44" s="36">
+        <v>7</v>
+      </c>
+      <c r="P44">
+        <v>17</v>
+      </c>
+      <c r="Q44" s="45">
+        <f t="shared" si="0"/>
+        <v>0.27868852459016391</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>41</v>
+      </c>
+      <c r="H45" s="1">
+        <v>27949</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0.17</v>
+      </c>
+      <c r="K45">
+        <v>13</v>
+      </c>
+      <c r="L45">
+        <v>26</v>
+      </c>
+      <c r="M45">
+        <v>-13</v>
+      </c>
+      <c r="N45" t="s">
+        <v>38</v>
+      </c>
+      <c r="O45" s="36">
+        <v>54</v>
+      </c>
+      <c r="P45">
+        <v>54</v>
+      </c>
+      <c r="Q45" s="45">
+        <f t="shared" si="0"/>
+        <v>0.88524590163934425</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>14</v>
+      </c>
+      <c r="H46" s="1">
+        <v>36161</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>0.83</v>
+      </c>
+      <c r="K46">
+        <v>26</v>
+      </c>
+      <c r="L46">
+        <v>12</v>
+      </c>
+      <c r="M46">
+        <v>14</v>
+      </c>
+      <c r="N46" t="s">
+        <v>37</v>
+      </c>
+      <c r="O46" s="36">
+        <v>9</v>
+      </c>
+      <c r="P46">
+        <v>7</v>
+      </c>
+      <c r="Q46" s="45">
+        <f t="shared" si="0"/>
+        <v>0.11475409836065574</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47">
+        <v>84</v>
+      </c>
+      <c r="H47" s="1">
+        <v>34062</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K47">
+        <v>21</v>
+      </c>
+      <c r="L47">
+        <v>28</v>
+      </c>
+      <c r="M47">
+        <v>-7</v>
+      </c>
+      <c r="N47" t="s">
+        <v>37</v>
+      </c>
+      <c r="O47" s="36">
+        <v>44</v>
+      </c>
+      <c r="P47">
+        <v>44</v>
+      </c>
+      <c r="Q47" s="45">
+        <f t="shared" si="0"/>
+        <v>0.72131147540983609</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>32</v>
+      </c>
+      <c r="H48" s="1">
+        <v>38211</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48">
+        <v>0.71</v>
+      </c>
+      <c r="K48">
+        <v>31</v>
+      </c>
+      <c r="L48">
+        <v>24</v>
+      </c>
+      <c r="M48">
+        <v>7</v>
+      </c>
+      <c r="N48" t="s">
+        <v>37</v>
+      </c>
+      <c r="O48" s="36">
+        <v>14</v>
+      </c>
+      <c r="P48">
+        <v>14</v>
+      </c>
+      <c r="Q48" s="45">
+        <f t="shared" si="0"/>
+        <v>0.22950819672131148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>999</v>
+      </c>
+      <c r="H49" s="1">
+        <v>24418</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>12</v>
+      </c>
+      <c r="L49">
+        <v>35</v>
+      </c>
+      <c r="M49">
+        <v>-23</v>
+      </c>
+      <c r="N49" t="s">
+        <v>38</v>
+      </c>
+      <c r="O49" s="36">
+        <v>61</v>
+      </c>
+      <c r="P49">
+        <v>61</v>
+      </c>
+      <c r="Q49" s="45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>103</v>
+      </c>
+      <c r="H50" s="1">
+        <v>38338</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K50">
+        <v>15</v>
+      </c>
+      <c r="L50">
+        <v>32</v>
+      </c>
+      <c r="M50">
+        <v>-17</v>
+      </c>
+      <c r="N50" t="s">
+        <v>38</v>
+      </c>
+      <c r="O50" s="36">
+        <v>56</v>
+      </c>
+      <c r="P50">
+        <v>56</v>
+      </c>
+      <c r="Q50" s="45">
+        <f t="shared" si="0"/>
+        <v>0.91803278688524592</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>58</v>
+      </c>
+      <c r="H51" s="1">
+        <v>36128</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K51">
+        <v>24</v>
+      </c>
+      <c r="L51">
+        <v>31</v>
+      </c>
+      <c r="M51">
+        <v>-7</v>
+      </c>
+      <c r="N51" t="s">
+        <v>37</v>
+      </c>
+      <c r="O51" s="36">
+        <v>43</v>
+      </c>
+      <c r="P51">
+        <v>43</v>
+      </c>
+      <c r="Q51" s="45">
+        <f t="shared" si="0"/>
+        <v>0.70491803278688525</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>54</v>
+      </c>
+      <c r="H52" s="1">
+        <v>26219</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>0.43</v>
+      </c>
+      <c r="K52">
+        <v>24</v>
+      </c>
+      <c r="L52">
+        <v>26</v>
+      </c>
+      <c r="M52">
+        <v>-2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>37</v>
+      </c>
+      <c r="O52" s="36">
+        <v>35</v>
+      </c>
+      <c r="P52">
+        <v>29</v>
+      </c>
+      <c r="Q52" s="45">
+        <f t="shared" si="0"/>
+        <v>0.47540983606557374</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" t="s">
+        <v>78</v>
+      </c>
+      <c r="F53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>25</v>
+      </c>
+      <c r="H53" s="1">
+        <v>27427</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <v>0.43</v>
+      </c>
+      <c r="K53">
+        <v>25</v>
+      </c>
+      <c r="L53">
+        <v>29</v>
+      </c>
+      <c r="M53">
+        <v>-4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>37</v>
+      </c>
+      <c r="O53" s="36">
+        <v>38</v>
+      </c>
+      <c r="P53">
+        <v>31</v>
+      </c>
+      <c r="Q53" s="45">
+        <f t="shared" si="0"/>
+        <v>0.50819672131147542</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>19</v>
+      </c>
+      <c r="H54" s="1">
+        <v>38141</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K54">
+        <v>29</v>
+      </c>
+      <c r="L54">
+        <v>20</v>
+      </c>
+      <c r="M54">
+        <v>9</v>
+      </c>
+      <c r="N54" t="s">
+        <v>37</v>
+      </c>
+      <c r="O54" s="36">
+        <v>23</v>
+      </c>
+      <c r="P54">
+        <v>24</v>
+      </c>
+      <c r="Q54" s="45">
+        <f t="shared" si="0"/>
+        <v>0.39344262295081966</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" t="s">
+        <v>63</v>
+      </c>
+      <c r="F55" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55">
+        <v>999</v>
+      </c>
+      <c r="H55" s="1">
+        <v>36830</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K55">
+        <v>21</v>
+      </c>
+      <c r="L55">
+        <v>29</v>
+      </c>
+      <c r="M55">
+        <v>-8</v>
+      </c>
+      <c r="N55" t="s">
+        <v>37</v>
+      </c>
+      <c r="O55" s="36">
+        <v>45</v>
+      </c>
+      <c r="P55">
+        <v>45</v>
+      </c>
+      <c r="Q55" s="45">
+        <f t="shared" si="0"/>
+        <v>0.73770491803278693</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" t="s">
+        <v>86</v>
+      </c>
+      <c r="F56" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>54</v>
+      </c>
+      <c r="H56" s="1">
+        <v>34058</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K56">
+        <v>19</v>
+      </c>
+      <c r="L56">
+        <v>31</v>
+      </c>
+      <c r="M56">
+        <v>-12</v>
+      </c>
+      <c r="N56" t="s">
+        <v>37</v>
+      </c>
+      <c r="O56" s="36">
+        <v>48</v>
+      </c>
+      <c r="P56">
+        <v>48</v>
+      </c>
+      <c r="Q56" s="45">
+        <f t="shared" si="0"/>
+        <v>0.78688524590163933</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>74</v>
+      </c>
+      <c r="H57" s="1">
+        <v>22885</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>8</v>
+      </c>
+      <c r="L57">
+        <v>30</v>
+      </c>
+      <c r="M57">
+        <v>-22</v>
+      </c>
+      <c r="N57" t="s">
+        <v>38</v>
+      </c>
+      <c r="O57" s="36">
+        <v>60</v>
+      </c>
+      <c r="P57">
+        <v>60</v>
+      </c>
+      <c r="Q57" s="45">
+        <f t="shared" si="0"/>
+        <v>0.98360655737704916</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>41</v>
+      </c>
+      <c r="H58" s="1">
+        <v>37520</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58">
+        <v>0.67</v>
+      </c>
+      <c r="K58">
+        <v>27</v>
+      </c>
+      <c r="L58">
+        <v>23</v>
+      </c>
+      <c r="M58">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>37</v>
+      </c>
+      <c r="O58" s="36">
+        <v>19</v>
+      </c>
+      <c r="P58">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="45">
+        <f t="shared" si="0"/>
+        <v>0.32786885245901637</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" t="s">
+        <v>49</v>
+      </c>
+      <c r="F59" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>90</v>
+      </c>
+      <c r="H59" s="1">
+        <v>35065</v>
+      </c>
+      <c r="I59">
+        <v>4</v>
+      </c>
+      <c r="J59">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K59">
+        <v>25</v>
+      </c>
+      <c r="L59">
+        <v>27</v>
+      </c>
+      <c r="M59">
+        <v>-2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>37</v>
+      </c>
+      <c r="O59" s="36">
+        <v>30</v>
+      </c>
+      <c r="P59">
+        <v>36</v>
+      </c>
+      <c r="Q59" s="45">
+        <f t="shared" si="0"/>
+        <v>0.5901639344262295</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" t="s">
+        <v>53</v>
+      </c>
+      <c r="E60" t="s">
+        <v>71</v>
+      </c>
+      <c r="F60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>18</v>
+      </c>
+      <c r="H60" s="1">
+        <v>36875</v>
+      </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
+      <c r="J60">
+        <v>0.71</v>
+      </c>
+      <c r="K60">
+        <v>28</v>
+      </c>
+      <c r="L60">
+        <v>26</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>37</v>
+      </c>
+      <c r="O60" s="36">
+        <v>17</v>
+      </c>
+      <c r="P60">
+        <v>19</v>
+      </c>
+      <c r="Q60" s="45">
+        <f t="shared" si="0"/>
+        <v>0.31147540983606559</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" t="s">
+        <v>67</v>
+      </c>
+      <c r="F61" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>114</v>
+      </c>
+      <c r="H61" s="1">
+        <v>39321</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0.17</v>
+      </c>
+      <c r="K61">
+        <v>20</v>
+      </c>
+      <c r="L61">
+        <v>26</v>
+      </c>
+      <c r="M61">
+        <v>-6</v>
+      </c>
+      <c r="N61" t="s">
+        <v>38</v>
+      </c>
+      <c r="O61" s="36">
+        <v>51</v>
+      </c>
+      <c r="P61">
+        <v>51</v>
+      </c>
+      <c r="Q61" s="45">
+        <f t="shared" si="0"/>
+        <v>0.83606557377049184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" t="s">
+        <v>41</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>67</v>
+      </c>
+      <c r="F62" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>103</v>
+      </c>
+      <c r="H62" s="1">
+        <v>39731</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <v>0.71</v>
+      </c>
+      <c r="K62">
+        <v>29</v>
+      </c>
+      <c r="L62">
+        <v>26</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>37</v>
+      </c>
+      <c r="O62" s="36">
+        <v>16</v>
+      </c>
+      <c r="P62">
+        <v>15</v>
+      </c>
+      <c r="Q62" s="45">
+        <f t="shared" si="0"/>
+        <v>0.24590163934426229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="N63" s="2"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="N82" s="2"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="N83" s="2"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N84" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q1" xr:uid="{33C3F57B-BAAF-4267-905A-99BDD3FBBDE0}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B470137D-6C55-4B5A-802E-6552E342FE06}">
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+      <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1857,130 +5304,130 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
         <v>67</v>
       </c>
       <c r="D47" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="E47">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="F47" s="1">
-        <v>38211</v>
+        <v>34062</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
       </c>
       <c r="E48">
-        <v>999</v>
+        <v>32</v>
       </c>
       <c r="F48" s="1">
-        <v>24418</v>
+        <v>38211</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
       </c>
       <c r="E49">
-        <v>103</v>
+        <v>999</v>
       </c>
       <c r="F49" s="1">
-        <v>38338</v>
+        <v>24418</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
       </c>
       <c r="E50">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="F50" s="1">
-        <v>36128</v>
+        <v>38338</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
       </c>
       <c r="E51">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F51" s="1">
-        <v>26219</v>
+        <v>36128</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
       </c>
       <c r="E52">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F52" s="1">
-        <v>27427</v>
+        <v>26219</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
         <v>78</v>
@@ -1989,98 +5436,98 @@
         <v>3</v>
       </c>
       <c r="E53">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F53" s="1">
-        <v>38141</v>
+        <v>27427</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
       </c>
       <c r="E54">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F54" s="1">
-        <v>34058</v>
+        <v>38141</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="E55">
-        <v>74</v>
+        <v>999</v>
       </c>
       <c r="F55" s="1">
-        <v>22885</v>
+        <v>36830</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D56" t="s">
         <v>3</v>
       </c>
       <c r="E56">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F56" s="1">
-        <v>37520</v>
+        <v>34058</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
       </c>
       <c r="E57">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F57" s="1">
-        <v>35065</v>
+        <v>22885</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C58" t="s">
         <v>71</v>
@@ -2089,105 +5536,109 @@
         <v>3</v>
       </c>
       <c r="E58">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F58" s="1">
-        <v>36875</v>
+        <v>37520</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
         <v>3</v>
       </c>
       <c r="E59">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F59" s="1">
-        <v>39321</v>
+        <v>35065</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C60" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
       </c>
       <c r="E60">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="F60" s="1">
-        <v>39731</v>
+        <v>36875</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D61" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="E61">
-        <v>999</v>
+        <v>114</v>
       </c>
       <c r="F61" s="1">
-        <v>36830</v>
+        <v>39321</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>67</v>
       </c>
       <c r="D62" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="E62">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="F62" s="1">
-        <v>34062</v>
+        <v>39731</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{B470137D-6C55-4B5A-802E-6552E342FE06}"/>
+  <autoFilter ref="A1:F1" xr:uid="{B470137D-6C55-4B5A-802E-6552E342FE06}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F62">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386D87D5-D02E-4FB7-9149-051B0619C02A}">
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2249,13 +5700,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2270,10 +5721,10 @@
         <v>35</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
         <v>37</v>
@@ -2290,31 +5741,31 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="36">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G3">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I3">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>37</v>
@@ -2331,31 +5782,31 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="36">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I4">
-        <v>26</v>
+        <v>-3</v>
       </c>
       <c r="J4" t="s">
         <v>37</v>
@@ -2372,31 +5823,31 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="36">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G5">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>-9</v>
       </c>
       <c r="J5" t="s">
         <v>37</v>
@@ -2413,10 +5864,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>67</v>
@@ -2425,19 +5876,19 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
         <v>37</v>
@@ -2454,31 +5905,31 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="36">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G7">
+        <v>35</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
         <v>30</v>
-      </c>
-      <c r="H7">
-        <v>19</v>
-      </c>
-      <c r="I7">
-        <v>11</v>
       </c>
       <c r="J7" t="s">
         <v>37</v>
@@ -2495,28 +5946,28 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8">
         <v>15</v>
@@ -2536,31 +5987,31 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="36">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="G9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I9">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J9" t="s">
         <v>37</v>
@@ -2577,31 +6028,31 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="36">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="G10">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I10">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
         <v>37</v>
@@ -2618,31 +6069,31 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="36">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>0.83</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I11">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J11" t="s">
         <v>37</v>
@@ -2659,31 +6110,31 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="36">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>0.71</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G12">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I12">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>37</v>
@@ -2700,31 +6151,31 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="36">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.71</v>
+        <v>0.43</v>
       </c>
       <c r="G13">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="J13" t="s">
         <v>37</v>
@@ -2741,34 +6192,34 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="36">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.71</v>
+        <v>0.17</v>
       </c>
       <c r="G14">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I14">
-        <v>9</v>
+        <v>-11</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14" s="1">
         <v>44632</v>
@@ -2782,31 +6233,31 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="36">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.71</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G15">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H15">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I15">
-        <v>7</v>
+        <v>-9</v>
       </c>
       <c r="J15" t="s">
         <v>37</v>
@@ -2823,31 +6274,31 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="36">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="G16">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H16">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>37</v>
@@ -2864,10 +6315,10 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="36">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>67</v>
@@ -2885,10 +6336,10 @@
         <v>29</v>
       </c>
       <c r="H17">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J17" t="s">
         <v>37</v>
@@ -2905,34 +6356,34 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="36">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.71</v>
+        <v>0.17</v>
       </c>
       <c r="G18">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H18">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="J18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K18" s="1">
         <v>44632</v>
@@ -2946,34 +6397,34 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="36">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <v>0.67</v>
-      </c>
-      <c r="G19">
-        <v>26</v>
-      </c>
       <c r="H19">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I19">
-        <v>6</v>
+        <v>-14</v>
       </c>
       <c r="J19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K19" s="1">
         <v>44632</v>
@@ -2987,34 +6438,34 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="36">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.67</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G20">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>-13</v>
       </c>
       <c r="J20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K20" s="1">
         <v>44632</v>
@@ -3028,31 +6479,31 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="36">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.67</v>
+        <v>0.43</v>
       </c>
       <c r="G21">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H21">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="J21" t="s">
         <v>37</v>
@@ -3069,31 +6520,31 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="36">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.67</v>
+        <v>0.43</v>
       </c>
       <c r="G22">
         <v>23</v>
       </c>
       <c r="H22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>37</v>
@@ -3110,31 +6561,31 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="36">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="G23">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H23">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>37</v>
@@ -3151,31 +6602,31 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="36">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>0.56999999999999995</v>
+        <v>0.86</v>
       </c>
       <c r="G24">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H24">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I24">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J24" t="s">
         <v>37</v>
@@ -3192,34 +6643,34 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="36">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.56999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G25">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H25">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I25">
-        <v>8</v>
+        <v>-5</v>
       </c>
       <c r="J25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K25" s="1">
         <v>44632</v>
@@ -3233,13 +6684,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="36">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
@@ -3251,13 +6702,13 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="G26">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H26">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="J26" t="s">
         <v>37</v>
@@ -3274,13 +6725,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="36">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
@@ -3289,13 +6740,13 @@
         <v>4</v>
       </c>
       <c r="F27">
-        <v>0.56999999999999995</v>
+        <v>0.67</v>
       </c>
       <c r="G27">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H27">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I27">
         <v>4</v>
@@ -3315,34 +6766,34 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="36">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.56999999999999995</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H28">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>-16</v>
       </c>
       <c r="J28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K28" s="1">
         <v>44632</v>
@@ -3356,13 +6807,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="36">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
@@ -3374,13 +6825,13 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="G29">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H29">
         <v>24</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J29" t="s">
         <v>37</v>
@@ -3397,13 +6848,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="36">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
@@ -3415,13 +6866,13 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="G30">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J30" t="s">
         <v>37</v>
@@ -3438,31 +6889,31 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="36">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.56999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G31">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H31">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I31">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="J31" t="s">
         <v>37</v>
@@ -3479,34 +6930,34 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="36">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.56999999999999995</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H32">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I32">
-        <v>-2</v>
+        <v>-20</v>
       </c>
       <c r="J32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K32" s="1">
         <v>44632</v>
@@ -3520,31 +6971,31 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="36">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="G33">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H33">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J33" t="s">
         <v>37</v>
@@ -3561,31 +7012,31 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="36">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G34">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H34">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I34">
-        <v>-3</v>
+        <v>-11</v>
       </c>
       <c r="J34" t="s">
         <v>37</v>
@@ -3602,31 +7053,31 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="36">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F35">
-        <v>0.43</v>
+        <v>0.71</v>
       </c>
       <c r="G35">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H35">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J35" t="s">
         <v>37</v>
@@ -3643,31 +7094,31 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>0.43</v>
-      </c>
-      <c r="G36">
-        <v>24</v>
-      </c>
       <c r="H36">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I36">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="J36" t="s">
         <v>37</v>
@@ -3684,31 +7135,31 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="36">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F37">
-        <v>0.43</v>
+        <v>0.83</v>
       </c>
       <c r="G37">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H37">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I37">
-        <v>-3</v>
+        <v>13</v>
       </c>
       <c r="J37" t="s">
         <v>37</v>
@@ -3725,10 +7176,10 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="36">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
         <v>67</v>
@@ -3737,19 +7188,19 @@
         <v>3</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>0.43</v>
+        <v>0.71</v>
       </c>
       <c r="G38">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H38">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I38">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="J38" t="s">
         <v>37</v>
@@ -3766,31 +7217,31 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="36">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>0.43</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G39">
+        <v>29</v>
+      </c>
+      <c r="H39">
         <v>25</v>
       </c>
-      <c r="H39">
-        <v>29</v>
-      </c>
       <c r="I39">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="J39" t="s">
         <v>37</v>
@@ -3807,13 +7258,13 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="36">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
@@ -3822,16 +7273,16 @@
         <v>3</v>
       </c>
       <c r="F40">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="G40">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H40">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I40">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="J40" t="s">
         <v>37</v>
@@ -3848,28 +7299,28 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="36">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="G41">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H41">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I41">
         <v>-3</v>
@@ -3889,31 +7340,31 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="36">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F42">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="G42">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H42">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I42">
-        <v>-5</v>
+        <v>13</v>
       </c>
       <c r="J42" t="s">
         <v>37</v>
@@ -3930,34 +7381,34 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="36">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s">
         <v>3</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>0.33</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G43">
         <v>15</v>
       </c>
       <c r="H43">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I43">
-        <v>-11</v>
+        <v>-19</v>
       </c>
       <c r="J43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K43" s="1">
         <v>44632</v>
@@ -3971,31 +7422,31 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="36">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F44">
-        <v>0.28999999999999998</v>
+        <v>0.83</v>
       </c>
       <c r="G44">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H44">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I44">
-        <v>-7</v>
+        <v>15</v>
       </c>
       <c r="J44" t="s">
         <v>37</v>
@@ -4012,34 +7463,34 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="36">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>0.28999999999999998</v>
+        <v>0.17</v>
       </c>
       <c r="G45">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H45">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I45">
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="J45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K45" s="1">
         <v>44632</v>
@@ -4053,31 +7504,31 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="36">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D46" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F46">
-        <v>0.28999999999999998</v>
+        <v>0.83</v>
       </c>
       <c r="G46">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H46">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I46">
-        <v>-8</v>
+        <v>14</v>
       </c>
       <c r="J46" t="s">
         <v>37</v>
@@ -4094,16 +7545,16 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="36">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D47" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -4115,10 +7566,10 @@
         <v>21</v>
       </c>
       <c r="H47">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I47">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="J47" t="s">
         <v>37</v>
@@ -4135,31 +7586,31 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="36">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F48">
-        <v>0.28999999999999998</v>
+        <v>0.71</v>
       </c>
       <c r="G48">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H48">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I48">
-        <v>-9</v>
+        <v>7</v>
       </c>
       <c r="J48" t="s">
         <v>37</v>
@@ -4176,34 +7627,34 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="36">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H49">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I49">
-        <v>-12</v>
+        <v>-23</v>
       </c>
       <c r="J49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K49" s="1">
         <v>44632</v>
@@ -4217,31 +7668,31 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="36">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G50">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H50">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I50">
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="J50" t="s">
         <v>38</v>
@@ -4258,34 +7709,34 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="36">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51">
-        <v>0.17</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G51">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H51">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I51">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="J51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K51" s="1">
         <v>44632</v>
@@ -4299,34 +7750,34 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="36">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F52">
-        <v>0.17</v>
+        <v>0.43</v>
       </c>
       <c r="G52">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H52">
         <v>26</v>
       </c>
       <c r="I52">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="J52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K52" s="1">
         <v>44632</v>
@@ -4340,34 +7791,34 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="36">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D53" t="s">
         <v>3</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53">
-        <v>0.17</v>
+        <v>0.43</v>
       </c>
       <c r="G53">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H53">
         <v>29</v>
       </c>
       <c r="I53">
-        <v>-11</v>
+        <v>-4</v>
       </c>
       <c r="J53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K53" s="1">
         <v>44632</v>
@@ -4381,34 +7832,34 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="36">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F54">
-        <v>0.17</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G54">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H54">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I54">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="J54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K54" s="1">
         <v>44632</v>
@@ -4422,34 +7873,34 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="36">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55">
-        <v>0.17</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G55">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H55">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I55">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="J55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K55" s="1">
         <v>44632</v>
@@ -4463,34 +7914,34 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="36">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D56" t="s">
         <v>3</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56">
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G56">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H56">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I56">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="J56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K56" s="1">
         <v>44632</v>
@@ -4504,31 +7955,31 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="36">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H57">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I57">
-        <v>-17</v>
+        <v>-22</v>
       </c>
       <c r="J57" t="s">
         <v>38</v>
@@ -4545,34 +7996,34 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="36">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C58" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F58">
-        <v>0.14000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="G58">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H58">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I58">
-        <v>-19</v>
+        <v>4</v>
       </c>
       <c r="J58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K58" s="1">
         <v>44632</v>
@@ -4586,34 +8037,34 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="36">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
         <v>3</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G59">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H59">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I59">
-        <v>-16</v>
+        <v>-2</v>
       </c>
       <c r="J59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K59" s="1">
         <v>44632</v>
@@ -4627,34 +8078,34 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="36">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="G60">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H60">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I60">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K60" s="1">
         <v>44632</v>
@@ -4668,10 +8119,10 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="36">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
         <v>67</v>
@@ -4680,19 +8131,19 @@
         <v>3</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="G61">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H61">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I61">
-        <v>-22</v>
+        <v>-6</v>
       </c>
       <c r="J61" t="s">
         <v>38</v>
@@ -4709,34 +8160,34 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="36">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D62" t="s">
         <v>3</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="G62">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H62">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I62">
-        <v>-23</v>
+        <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K62" s="1">
         <v>44632</v>
@@ -4830,18 +8281,22 @@
       <c r="J84" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{386D87D5-D02E-4FB7-9149-051B0619C02A}"/>
+  <autoFilter ref="A1:M1" xr:uid="{386D87D5-D02E-4FB7-9149-051B0619C02A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M62">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4885,19 +8340,19 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1">
-        <v>36782</v>
+        <v>35796</v>
       </c>
       <c r="F2" s="1">
         <v>44632</v>
@@ -4911,19 +8366,19 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>32319</v>
+        <v>35431</v>
       </c>
       <c r="F3" s="1">
         <v>44632</v>
@@ -4937,19 +8392,19 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>35324</v>
+        <v>30021</v>
       </c>
       <c r="F4" s="1">
         <v>44632</v>
@@ -4963,19 +8418,19 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>33595</v>
+        <v>38473</v>
       </c>
       <c r="F5" s="1">
         <v>44632</v>
@@ -4989,19 +8444,19 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>35796</v>
+        <v>30573</v>
       </c>
       <c r="F6" s="1">
         <v>44632</v>
@@ -5020,19 +8475,19 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>34315</v>
+        <v>33595</v>
       </c>
       <c r="F7" s="1">
         <v>44632</v>
@@ -5051,19 +8506,19 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>36161</v>
+        <v>34315</v>
       </c>
       <c r="F8" s="1">
         <v>44632</v>
@@ -5113,10 +8568,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>67</v>
@@ -5125,7 +8580,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="1">
-        <v>30573</v>
+        <v>38019</v>
       </c>
       <c r="F10" s="1">
         <v>44632</v>
@@ -5144,19 +8599,19 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="1">
-        <v>37683</v>
+        <v>31413</v>
       </c>
       <c r="F11" s="1">
         <v>44632</v>
@@ -5175,19 +8630,19 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="1">
-        <v>38231</v>
+        <v>37694</v>
       </c>
       <c r="F12" s="1">
         <v>44632</v>
@@ -5206,19 +8661,19 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1">
-        <v>38054</v>
+        <v>38471</v>
       </c>
       <c r="F13" s="1">
         <v>44632</v>
@@ -5237,19 +8692,19 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="1">
-        <v>38600</v>
+        <v>33791</v>
       </c>
       <c r="F14" s="1">
         <v>44632</v>
@@ -5268,19 +8723,19 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="1">
-        <v>38211</v>
+        <v>21027</v>
       </c>
       <c r="F15" s="1">
         <v>44632</v>
@@ -5299,19 +8754,19 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="1">
-        <v>39731</v>
+        <v>24801</v>
       </c>
       <c r="F16" s="1">
         <v>44632</v>
@@ -5330,19 +8785,19 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="1">
-        <v>38452</v>
+        <v>38600</v>
       </c>
       <c r="F17" s="1">
         <v>44632</v>
@@ -5361,19 +8816,19 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="1">
-        <v>37101</v>
+        <v>29600</v>
       </c>
       <c r="F18" s="1">
         <v>44632</v>
@@ -5392,19 +8847,19 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="1">
-        <v>38111</v>
+        <v>30843</v>
       </c>
       <c r="F19" s="1">
         <v>44632</v>
@@ -5423,19 +8878,19 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="1">
-        <v>36875</v>
+        <v>25022</v>
       </c>
       <c r="F20" s="1">
         <v>44632</v>
@@ -5454,19 +8909,19 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="1">
-        <v>37520</v>
+        <v>37523</v>
       </c>
       <c r="F21" s="1">
         <v>44632</v>
@@ -5485,19 +8940,19 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="1">
-        <v>30053</v>
+        <v>35431</v>
       </c>
       <c r="F22" s="1">
         <v>44632</v>
@@ -5516,19 +8971,19 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="1">
-        <v>24801</v>
+        <v>30784</v>
       </c>
       <c r="F23" s="1">
         <v>44632</v>
@@ -5547,10 +9002,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
         <v>67</v>
@@ -5559,7 +9014,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="1">
-        <v>38019</v>
+        <v>37683</v>
       </c>
       <c r="F24" s="1">
         <v>44632</v>
@@ -5578,19 +9033,19 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="1">
-        <v>38141</v>
+        <v>38299</v>
       </c>
       <c r="F25" s="1">
         <v>44632</v>
@@ -5609,19 +9064,19 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="1">
-        <v>34789</v>
+        <v>32227</v>
       </c>
       <c r="F26" s="1">
         <v>44632</v>
@@ -5640,19 +9095,19 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
       </c>
       <c r="E27" s="1">
-        <v>37694</v>
+        <v>30053</v>
       </c>
       <c r="F27" s="1">
         <v>44632</v>
@@ -5671,19 +9126,19 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="1">
-        <v>32227</v>
+        <v>38168</v>
       </c>
       <c r="F28" s="1">
         <v>44632</v>
@@ -5702,19 +9157,19 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="1">
-        <v>27520</v>
+        <v>32982</v>
       </c>
       <c r="F29" s="1">
         <v>44632</v>
@@ -5733,19 +9188,19 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="1">
-        <v>26219</v>
+        <v>34789</v>
       </c>
       <c r="F30" s="1">
         <v>44632</v>
@@ -5764,19 +9219,19 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
       </c>
       <c r="E31" s="1">
-        <v>37523</v>
+        <v>38587</v>
       </c>
       <c r="F31" s="1">
         <v>44632</v>
@@ -5795,19 +9250,19 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="1">
-        <v>27427</v>
+        <v>38308</v>
       </c>
       <c r="F32" s="1">
         <v>44632</v>
@@ -5826,19 +9281,19 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
       </c>
       <c r="E33" s="1">
-        <v>30021</v>
+        <v>38231</v>
       </c>
       <c r="F33" s="1">
         <v>44632</v>
@@ -5857,19 +9312,19 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="1">
-        <v>31413</v>
+        <v>33239</v>
       </c>
       <c r="F34" s="1">
         <v>44632</v>
@@ -5888,19 +9343,19 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="1">
-        <v>32982</v>
+        <v>38111</v>
       </c>
       <c r="F35" s="1">
         <v>44632</v>
@@ -5919,19 +9374,19 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="1">
-        <v>35431</v>
+        <v>36782</v>
       </c>
       <c r="F36" s="1">
         <v>44632</v>
@@ -5950,19 +9405,19 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="1">
-        <v>35065</v>
+        <v>32319</v>
       </c>
       <c r="F37" s="1">
         <v>44632</v>
@@ -5981,19 +9436,19 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
       </c>
       <c r="E38" s="1">
-        <v>30784</v>
+        <v>38054</v>
       </c>
       <c r="F38" s="1">
         <v>44632</v>
@@ -6012,19 +9467,19 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
       </c>
       <c r="E39" s="1">
-        <v>35431</v>
+        <v>38452</v>
       </c>
       <c r="F39" s="1">
         <v>44632</v>
@@ -6043,19 +9498,19 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
       </c>
       <c r="E40" s="1">
-        <v>37969</v>
+        <v>27520</v>
       </c>
       <c r="F40" s="1">
         <v>44632</v>
@@ -6074,19 +9529,19 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="1">
-        <v>38471</v>
+        <v>37969</v>
       </c>
       <c r="F41" s="1">
         <v>44632</v>
@@ -6105,19 +9560,19 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
       </c>
       <c r="E42" s="1">
-        <v>38587</v>
+        <v>35324</v>
       </c>
       <c r="F42" s="1">
         <v>44632</v>
@@ -6136,19 +9591,19 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s">
         <v>3</v>
       </c>
       <c r="E43" s="1">
-        <v>33239</v>
+        <v>30288</v>
       </c>
       <c r="F43" s="1">
         <v>44632</v>
@@ -6167,19 +9622,19 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
       </c>
       <c r="E44" s="1">
-        <v>36128</v>
+        <v>37101</v>
       </c>
       <c r="F44" s="1">
         <v>44632</v>
@@ -6198,19 +9653,19 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="E45" s="1">
-        <v>34062</v>
+        <v>27949</v>
       </c>
       <c r="F45" s="1">
         <v>44632</v>
@@ -6229,19 +9684,19 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D46" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="E46" s="1">
-        <v>36830</v>
+        <v>36161</v>
       </c>
       <c r="F46" s="1">
         <v>44632</v>
@@ -6260,19 +9715,19 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D47" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="E47" s="1">
-        <v>21027</v>
+        <v>34062</v>
       </c>
       <c r="F47" s="1">
         <v>44632</v>
@@ -6291,19 +9746,19 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
       </c>
       <c r="E48" s="1">
-        <v>38473</v>
+        <v>38211</v>
       </c>
       <c r="F48" s="1">
         <v>44632</v>
@@ -6322,19 +9777,19 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
       </c>
       <c r="E49" s="1">
-        <v>34058</v>
+        <v>24418</v>
       </c>
       <c r="F49" s="1">
         <v>44632</v>
@@ -6353,19 +9808,19 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
       </c>
       <c r="E50" s="1">
-        <v>25022</v>
+        <v>38338</v>
       </c>
       <c r="F50" s="1">
         <v>44632</v>
@@ -6384,19 +9839,19 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
       </c>
       <c r="E51" s="1">
-        <v>38299</v>
+        <v>36128</v>
       </c>
       <c r="F51" s="1">
         <v>44632</v>
@@ -6415,19 +9870,19 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
       </c>
       <c r="E52" s="1">
-        <v>39321</v>
+        <v>26219</v>
       </c>
       <c r="F52" s="1">
         <v>44632</v>
@@ -6446,19 +9901,19 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D53" t="s">
         <v>3</v>
       </c>
       <c r="E53" s="1">
-        <v>29600</v>
+        <v>27427</v>
       </c>
       <c r="F53" s="1">
         <v>44632</v>
@@ -6477,19 +9932,19 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
       </c>
       <c r="E54" s="1">
-        <v>33791</v>
+        <v>38141</v>
       </c>
       <c r="F54" s="1">
         <v>44632</v>
@@ -6508,19 +9963,19 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1">
-        <v>27949</v>
+        <v>36830</v>
       </c>
       <c r="F55" s="1">
         <v>44632</v>
@@ -6539,19 +9994,19 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D56" t="s">
         <v>3</v>
       </c>
       <c r="E56" s="1">
-        <v>30843</v>
+        <v>34058</v>
       </c>
       <c r="F56" s="1">
         <v>44632</v>
@@ -6570,19 +10025,19 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
       </c>
       <c r="E57" s="1">
-        <v>38338</v>
+        <v>22885</v>
       </c>
       <c r="F57" s="1">
         <v>44632</v>
@@ -6601,19 +10056,19 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C58" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
       </c>
       <c r="E58" s="1">
-        <v>30288</v>
+        <v>37520</v>
       </c>
       <c r="F58" s="1">
         <v>44632</v>
@@ -6632,19 +10087,19 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
         <v>3</v>
       </c>
       <c r="E59" s="1">
-        <v>38168</v>
+        <v>35065</v>
       </c>
       <c r="F59" s="1">
         <v>44632</v>
@@ -6663,19 +10118,19 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
       </c>
       <c r="E60" s="1">
-        <v>38308</v>
+        <v>36875</v>
       </c>
       <c r="F60" s="1">
         <v>44632</v>
@@ -6694,10 +10149,10 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
         <v>67</v>
@@ -6706,7 +10161,7 @@
         <v>3</v>
       </c>
       <c r="E61" s="1">
-        <v>22885</v>
+        <v>39321</v>
       </c>
       <c r="F61" s="1">
         <v>44632</v>
@@ -6725,19 +10180,19 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D62" t="s">
         <v>3</v>
       </c>
       <c r="E62" s="1">
-        <v>24418</v>
+        <v>39731</v>
       </c>
       <c r="F62" s="1">
         <v>44632</v>
@@ -6859,18 +10314,22 @@
       <c r="F83" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H62">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F8EDA6-D787-4F72-A469-1C2216DF73D5}">
   <dimension ref="A1:K408"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="92" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21141,7 +24600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043C8A66-B841-451A-B15B-851FFCAF7C9F}">
   <dimension ref="A1:K407"/>
   <sheetViews>
